--- a/Encuestas/UVA.2025.xlsx
+++ b/Encuestas/UVA.2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70254057\Downloads\final forms sg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70254057\Desktop\basic-hub\LocalWealthHousing\Encuestas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB16A5B-4757-4E3A-A4D9-85F9C693B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552F2A9A-BD29-4C86-9D10-8F5A7F936DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>hora_de_inicio</t>
   </si>
   <si>
-    <t>hora_de_finalización</t>
-  </si>
-  <si>
     <t>correo_electrónico</t>
   </si>
   <si>
@@ -635,6 +632,9 @@
   </si>
   <si>
     <t>18 months</t>
+  </si>
+  <si>
+    <t>hora_de_finalizacion</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1052,64 +1052,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -1123,61 +1123,61 @@
         <v>45602.867384259262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P2" s="2">
         <v>400</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S2" s="2">
         <v>70</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -1191,61 +1191,61 @@
         <v>45603.76734953704</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2">
         <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P3" s="2">
         <v>220</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S3" s="2">
         <v>50</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1259,61 +1259,61 @@
         <v>45606.072905092587</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="2">
         <v>100</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P4" s="2">
         <v>275</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S4" s="2">
         <v>7.5</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1327,55 +1327,55 @@
         <v>45607.085625</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P5" s="2">
         <v>250</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S5" s="2">
         <v>100</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -1389,58 +1389,58 @@
         <v>45607.165439814817</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P6" s="2">
         <v>195</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S6" s="2">
         <v>30</v>
       </c>
       <c r="T6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V6" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -1454,61 +1454,61 @@
         <v>45608.018703703703</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P7" s="2">
         <v>230</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S7" s="2">
         <v>25</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1522,58 +1522,58 @@
         <v>45614.971574074072</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P8" s="2">
         <v>345</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1587,61 +1587,61 @@
         <v>45622.828043981477</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9" s="2">
         <v>80</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P9" s="2">
         <v>290</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S9" s="2">
         <v>0</v>
       </c>
       <c r="T9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U9" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V9" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1655,61 +1655,61 @@
         <v>45622.829317129632</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2">
         <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P10" s="2">
         <v>1300</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S10" s="2">
         <v>620</v>
       </c>
       <c r="T10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V10" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -1723,52 +1723,52 @@
         <v>45622.832569444443</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2">
         <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P11" s="2">
         <v>320</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1782,61 +1782,61 @@
         <v>45622.850266203714</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="2">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P12" s="2">
         <v>600</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S12" s="2">
         <v>200</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -1850,58 +1850,58 @@
         <v>45622.884826388887</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2">
         <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P13" s="2">
         <v>575</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1915,61 +1915,61 @@
         <v>45622.914814814823</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P14" s="2">
         <v>600</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S14" s="2">
         <v>80</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -1983,61 +1983,61 @@
         <v>45622.936550925922</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2">
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="2">
         <v>95</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P15" s="2">
         <v>300</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S15" s="2">
         <v>20</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -2051,49 +2051,49 @@
         <v>45622.948981481481</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2">
         <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="M16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P16" s="2">
         <v>260</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -2107,58 +2107,58 @@
         <v>45623.091620370367</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2">
         <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P17" s="2">
         <v>300</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S17" s="2">
         <v>0</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -2172,58 +2172,58 @@
         <v>45623.10429398148</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2">
         <v>19</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18" s="2">
         <v>140</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P18" s="2">
         <v>350</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -2237,58 +2237,58 @@
         <v>45623.138206018521</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="2">
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P19" s="2">
         <v>190</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S19" s="2">
         <v>30</v>
       </c>
       <c r="T19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U19" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U19" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -2302,55 +2302,55 @@
         <v>45623.922083333331</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="2">
         <v>19</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="O20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P20" s="2">
         <v>350</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -2364,55 +2364,55 @@
         <v>45624.091817129629</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2">
         <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P21" s="2">
         <v>310</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U21" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -2426,58 +2426,58 @@
         <v>45624.636111111111</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2">
         <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P22" s="2">
         <v>330</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U22" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U22" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V22" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -2491,58 +2491,58 @@
         <v>45624.953009259261</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2">
         <v>19</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P23" s="2">
         <v>260</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S23" s="2">
         <v>30</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -2556,58 +2556,58 @@
         <v>45624.953622685192</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2">
         <v>22</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P24" s="2">
         <v>670</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S24" s="2">
         <v>76</v>
       </c>
       <c r="T24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U24" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U24" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V24" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -2621,58 +2621,58 @@
         <v>45636.119074074071</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2">
         <v>18</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P25" s="2">
         <v>310</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S25" s="2">
         <v>50</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -2686,55 +2686,55 @@
         <v>45638.80269675926</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="2">
         <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P26" s="2">
         <v>275</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S26" s="2">
         <v>35</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -2748,58 +2748,58 @@
         <v>45645.25104166667</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2">
         <v>32</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P27" s="2">
         <v>250</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S27" s="2">
         <v>0</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -2813,55 +2813,55 @@
         <v>45646.096990740742</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2">
         <v>22</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P28" s="2">
         <v>300</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S28" s="2">
         <v>15</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -2875,58 +2875,58 @@
         <v>45646.674583333333</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2">
+        <v>21</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="2">
-        <v>21</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P29" s="2">
         <v>325</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S29" s="2">
         <v>150</v>
       </c>
       <c r="T29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U29" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U29" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V29" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -2940,34 +2940,34 @@
         <v>45666.839016203703</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="2">
         <v>20</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P30" s="2">
         <v>0</v>
@@ -2984,55 +2984,55 @@
         <v>45666.844594907408</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2">
         <v>20</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="2">
         <v>80</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P31" s="2">
         <v>300</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U31" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U31" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V31" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -3046,40 +3046,40 @@
         <v>45671.705289351848</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="2">
         <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
@@ -3093,37 +3093,37 @@
         <v>45671.705972222233</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="2">
         <v>20</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
@@ -3137,58 +3137,58 @@
         <v>45671.707812499997</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="2">
         <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P34" s="2">
         <v>300</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T34" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U34" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U34" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V34" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
@@ -3202,58 +3202,58 @@
         <v>45701.773715277777</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="2">
         <v>22</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P35" s="2">
         <v>400</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -3267,58 +3267,58 @@
         <v>45701.775995370372</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="2">
         <v>20</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P36" s="2">
         <v>300</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
@@ -3332,55 +3332,55 @@
         <v>45701.782013888893</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="2">
         <v>20</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P37" s="2">
         <v>500</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -3394,58 +3394,58 @@
         <v>45701.797118055547</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" s="2">
         <v>19</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P38" s="2">
         <v>280</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
@@ -3459,58 +3459,58 @@
         <v>45701.802141203712</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" s="2">
         <v>19</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P39" s="2">
         <v>600</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S39" s="2">
         <v>70</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -3524,58 +3524,58 @@
         <v>45701.807581018518</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" s="2">
         <v>27</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P40" s="2">
         <v>450</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T40" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U40" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U40" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V40" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
@@ -3589,58 +3589,58 @@
         <v>45701.808634259258</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" s="2">
         <v>22</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P41" s="2">
         <v>450</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U41" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U41" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V41" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -3654,55 +3654,55 @@
         <v>45701.809756944444</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42" s="2">
         <v>20</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P42" s="2">
         <v>580</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -3716,58 +3716,58 @@
         <v>45701.811631944453</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="2">
+        <v>21</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="2">
-        <v>21</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P43" s="2">
         <v>400</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -3781,58 +3781,58 @@
         <v>45701.813958333332</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="2">
         <v>20</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P44" s="2">
         <v>480</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U44" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U44" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V44" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -3846,58 +3846,58 @@
         <v>45701.81554398148</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" s="2">
         <v>24</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P45" s="2">
         <v>320</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U45" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U45" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V45" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
@@ -3911,58 +3911,58 @@
         <v>45701.818298611113</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E46" s="2">
         <v>22</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P46" s="2">
         <v>350</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U46" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U46" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V46" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
@@ -3976,58 +3976,58 @@
         <v>45701.82403935185</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47" s="2">
         <v>22</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P47" s="2">
         <v>400</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
@@ -4041,55 +4041,55 @@
         <v>45701.827361111107</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E48" s="2">
         <v>23</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P48" s="2">
         <v>500</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
@@ -4103,55 +4103,55 @@
         <v>45701.82849537037</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E49" s="2">
         <v>22</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P49" s="2">
         <v>500</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
@@ -4165,52 +4165,52 @@
         <v>45701.830451388887</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E50" s="2">
         <v>20</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P50" s="2">
         <v>580</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
@@ -4224,58 +4224,58 @@
         <v>45701.83384259259</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51" s="2">
         <v>21</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P51" s="2">
         <v>320</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T51" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U51" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U51" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V51" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
@@ -4289,58 +4289,58 @@
         <v>45701.835439814808</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" s="2">
         <v>24</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P52" s="2">
         <v>400</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U52" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U52" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V52" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
@@ -4354,55 +4354,55 @@
         <v>45701.840439814812</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" s="2">
         <v>20</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P53" s="2">
         <v>350</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
@@ -4416,37 +4416,37 @@
         <v>45706.695104166669</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E54" s="2">
         <v>23</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
@@ -4460,37 +4460,37 @@
         <v>45706.696666666663</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="2">
+        <v>21</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="2">
-        <v>21</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G55" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
@@ -4504,58 +4504,58 @@
         <v>45706.699687499997</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E56" s="2">
         <v>20</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P56" s="2">
         <v>280</v>
       </c>
       <c r="Q56" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R56" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="R56" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="T56" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U56" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U56" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V56" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
@@ -4569,37 +4569,37 @@
         <v>45706.701145833344</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="2">
+        <v>21</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="2">
-        <v>21</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
@@ -4613,34 +4613,34 @@
         <v>45706.701747685183</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E58" s="2">
         <v>25</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K58" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
@@ -4654,55 +4654,55 @@
         <v>45706.703310185178</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E59" s="2">
         <v>22</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P59" s="2">
         <v>250</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T59" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U59" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U59" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V59" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
@@ -4716,34 +4716,34 @@
         <v>45706.704074074078</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E60" s="2">
         <v>20</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
@@ -4757,55 +4757,55 @@
         <v>45706.705763888887</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E61" s="2">
         <v>19</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P61" s="2">
         <v>500</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S61" s="2">
         <v>35</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
@@ -4819,34 +4819,34 @@
         <v>45706.706458333327</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E62" s="2">
         <v>22</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I62" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
